--- a/Akt.xlsx
+++ b/Akt.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -45,10 +45,31 @@
     <t>Вес мешка</t>
   </si>
   <si>
-    <t>14.03.2023 а/м М246ВР пломба № 52388385</t>
-  </si>
-  <si>
     <t>Направление</t>
+  </si>
+  <si>
+    <t>Направление:</t>
+  </si>
+  <si>
+    <t>УССУРИЙСК-М.О. д. ШАРАПОВО</t>
+  </si>
+  <si>
+    <t>Прицеп:</t>
+  </si>
+  <si>
+    <t>объем тары (прицепа), куб:</t>
+  </si>
+  <si>
+    <t>объем груза, куб:</t>
+  </si>
+  <si>
+    <t>Тягач:</t>
+  </si>
+  <si>
+    <t>01.03.2024 а/м М246ВР пломба № 52388385</t>
+  </si>
+  <si>
+    <t>ТРЕКЕР ID:</t>
   </si>
 </sst>
 </file>
@@ -76,13 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -95,6 +109,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,9 +154,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -144,10 +166,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,33 +500,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,12 +578,12 @@
         <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
